--- a/biology/Zoologie/Holocentrus_rufus/Holocentrus_rufus.xlsx
+++ b/biology/Zoologie/Holocentrus_rufus/Holocentrus_rufus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Holocentrus rufus, aussi anciennement appelé Marignon soldat par la FAO[1], est une espèce de poissons de la famille des Holocentridés. Répartis en Atlantique ouest[2], les plus grands individus peuvent atteindre 32 cm[2] à 35 cm[3]..
+Holocentrus rufus, aussi anciennement appelé Marignon soldat par la FAO, est une espèce de poissons de la famille des Holocentridés. Répartis en Atlantique ouest, les plus grands individus peuvent atteindre 32 cm à 35 cm..
 </t>
         </is>
       </c>
